--- a/debug/debug_calls_per_student_A.xlsx
+++ b/debug/debug_calls_per_student_A.xlsx
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
